--- a/Doc/屏中俄对照.xlsx
+++ b/Doc/屏中俄对照.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\土库曼斯坦\仪表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Study\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Скор.вр.кол.вала д.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ходовые параметры</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Снловое напряже нне</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Смазочное давленне</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Скор.т-За</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Давленне М-горення</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Т゜С охлводы</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Т゜С масла</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Размык.датч.t゜С выхода средн.  t゜С охлажл.воы лнзеля</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Пред.стр.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Возврат</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Аварня Инфор мацня</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运行参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,22 +154,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Входящая Т゜С</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Выходящая Т゜С</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.Снстема среднеохл.воды д-ля</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Т゜С воды теплообменннка</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Вх.Т゜С масла</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,26 +174,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Вход п-повыснтеля</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Вход з-повыснтеля</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Входфнльтра</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Выход н-са м-горення</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Конец снстемы</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.Давленне масла</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Вспом.функцня</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Русском</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,42 +441,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Образ однозкр.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ск-вращ.охл.вра#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ск-вращ.охл.вра#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Возб.ток возбуднтеля</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Возбуднтельн.ток ГГ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Реле заземлення</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ск-вращл-турбонагнет.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ск-вращз-турбонагнет.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Т゜С средыпрн сннж.мощ1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ток4D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,22 +453,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Разность тока дв-дей</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1D转速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ток1D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Скорость вращ.1D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ток2D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,18 +486,6 @@
   </si>
   <si>
     <t>Скорость вращ.6D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Разность сквр.двнт.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Т゜С средыпрн сннж.мощ1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Т゜С окр. Среды 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,63 +523,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Сум.вр.х.хода.д-ля：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Расх.зн.реост.торм：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Напряжение +24V：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障切除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Установка</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Возврат на 1сун</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温升信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Инф.повЫШ. t゜С</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切除查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Напряжение -24V：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Рег-каяркостн</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Уст-время</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴温信息窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Отрыв датчнка t゜С оси</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>температура оси</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄文照片上看不清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Т゜С масла</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Аварня Инфор мацня</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Т゜С  оси</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ПП.оси Т゜С</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Температура оси</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Т゜С окр. Среды 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Т゜С окр. Среды 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Раз.цепь：‘×××’；КЗ：‘---’；Авария：Индик.крас.цвета</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Скор.вр.кол.вала д.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ходовые параметры</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Сумм.вр.тяги д-ля</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>С.время р.торм. д-ля</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>л</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>База мощн-ти ГГ：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Поз.гл.рукоятки：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Расход зн.тяг.рем：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Смазочное давленне</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Т゜С охлводы</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Входящая Т゜С</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Выходящая Т゜С</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Снстема среднеохл.воды д-ля</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Т゜С воды теплообменннка</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Вход п-повыснтеля</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Входфнльтра</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Конец снстемы</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ск-вращ.охл.вра#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ск-вращ.охл.вра#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Возб.ток возбуднтеля</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Возбуднтельн.ток ГГ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Реле заземлення</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ск-вращл-турбонагнет.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Т゜С средыпрн сннж.мощ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ток1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Разность тока дв-дей</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Козф-т токораспр-ння</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>л</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Сумм.вр.тяги д-ля</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Сум.вр.х.хода.д-ля：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>С.время р.торм. д-ля</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>База мощн-ти ГГ：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Поз.гл.рукоятки：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Расход зн.тяг.рем：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Расх.зн.реост.торм：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Напряжение +24V：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障切除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>履历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回一级</t>
+    <t>Скорость вращ.1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Разность сквр.двнт.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Скор.т-За</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Образ однозкр.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Вспом.функцня</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Возврат</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Пред.стр.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮度调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>выкл.аварин</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,103 +791,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Установка</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Возврат на 1сун</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温升信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Т゜С окр. Среды 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Раз.цепь：‘×××’；КЗ：‘---’；Авария：Индик.крас.цвета</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Инф.повЫШ. t゜С</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮度调节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切除查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Напряжение -24V：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Рег-каяркостн</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Уст-время</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Выкл.справкн</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Инднкацня 2ст.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴温信息窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Температура оси</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Т゜С  оси</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ПП.оси Т゜С</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Отрыв датчнка t゜С оси</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>температура оси</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>выкл.аварин</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄文照片上看不清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,17 +1291,17 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1310,864 +1310,864 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
+      <c r="B12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
+      <c r="B15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="B16" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
+      <c r="B17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="27">
-      <c r="A13" s="11" t="s">
+      <c r="B18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="7" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="B37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
+      <c r="B59" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="10" t="s">
+      <c r="B60" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="10" t="s">
+      <c r="B62" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="10" t="s">
+      <c r="B63" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="10" t="s">
+      <c r="B64" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="B65" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="16"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="21"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="14" t="s">
+      <c r="B69" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="16"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="14" t="s">
+      <c r="B70" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="21"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="14" t="s">
+      <c r="B71" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="21"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="14" t="s">
+      <c r="B72" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="14" t="s">
+      <c r="B73" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="16"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="16"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="16"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="16"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="16"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="21"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="21"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="21"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="21"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="21"/>
-    </row>
-    <row r="74" spans="1:3" ht="27">
-      <c r="A74" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="21"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" s="21"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C77" s="23"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C78" s="23"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C79" s="23"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="12" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>153</v>
       </c>
       <c r="C80" s="23"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="12" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C82" s="23"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="12" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C83" s="23"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="12" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C84" s="23"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="12" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="C85" s="23"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="12" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C86" s="23"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="12" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="C87" s="23"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="27" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B88" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="24"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="26"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="26"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="26"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="19"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="19"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="24"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="26"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="26"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" s="26"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C92" s="19"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="19"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>180</v>
-      </c>
       <c r="C94" s="19"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="18" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C95" s="19"/>
     </row>
